--- a/template/custom_container_dates.xlsx
+++ b/template/custom_container_dates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\llamasys\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgio Park\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A177FEF-B781-40CD-89F2-2A6B32392066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9918392B-24D3-4BDC-9F8B-A618E2BE789C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="780" windowWidth="20490" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,44 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Carrier Grp</t>
   </si>
   <si>
-    <t>PLISZ4F12001</t>
-  </si>
-  <si>
-    <t>APZU3335075</t>
-  </si>
-  <si>
-    <t>CMA</t>
-  </si>
-  <si>
-    <t>2024-10-02</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>PLISZ4F12002</t>
-  </si>
-  <si>
-    <t>FCIU2787596</t>
-  </si>
-  <si>
-    <t>PLISH4F33743</t>
-  </si>
-  <si>
-    <t>HAMU2365569</t>
-  </si>
-  <si>
-    <t>HAPAG</t>
-  </si>
-  <si>
-    <t>2024-10-03</t>
-  </si>
-  <si>
     <t>Picked up</t>
   </si>
   <si>
@@ -85,16 +52,39 @@
   </si>
   <si>
     <t>HBL No</t>
+  </si>
+  <si>
+    <t>PLIVN4F35739</t>
+  </si>
+  <si>
+    <t>SUDU8870454</t>
+  </si>
+  <si>
+    <t>MAERSK</t>
+  </si>
+  <si>
+    <t>SUDU8878732</t>
+  </si>
+  <si>
+    <t>PLIVN4F35736</t>
+  </si>
+  <si>
+    <t>MRKU5514937</t>
+  </si>
+  <si>
+    <t>DEM /DET 
+Deadline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,8 +120,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,8 +163,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8989"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -180,43 +199,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -225,6 +214,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -505,124 +512,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7">
+        <v>45658</v>
+      </c>
+      <c r="E2" s="8">
+        <v>45658</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="9">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7">
+        <v>45658</v>
+      </c>
+      <c r="E3" s="8">
+        <v>45658</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="9">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>5</v>
+      <c r="D4" s="7">
+        <v>45658</v>
+      </c>
+      <c r="E4" s="8">
+        <v>45658</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="9">
+        <v>45678</v>
       </c>
     </row>
   </sheetData>

--- a/template/custom_container_dates.xlsx
+++ b/template/custom_container_dates.xlsx
@@ -1,90 +1,597 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgio Park\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\llamasys\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9918392B-24D3-4BDC-9F8B-A618E2BE789C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Data KLO" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Report!$A$2:$AS$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="170">
+  <si>
+    <t>Pantos
+(SpeedOcean)</t>
+  </si>
+  <si>
+    <t>↓Auto Calculation</t>
+  </si>
+  <si>
+    <t>HBL No.</t>
+  </si>
+  <si>
+    <t>Invoice No.</t>
+  </si>
+  <si>
+    <t>CNTR No.</t>
+  </si>
+  <si>
+    <t>MBL No.</t>
+  </si>
+  <si>
+    <t>SHPR Name</t>
+  </si>
+  <si>
+    <t>ITEM NM</t>
+  </si>
+  <si>
+    <t>Qty.</t>
+  </si>
+  <si>
+    <t>CBM</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Incoterms</t>
+  </si>
   <si>
     <t>Carrier Grp</t>
   </si>
   <si>
-    <t>Picked up</t>
-  </si>
-  <si>
-    <t>WH Arrival</t>
-  </si>
-  <si>
-    <t>Returned</t>
-  </si>
-  <si>
-    <t>ETA</t>
-  </si>
-  <si>
-    <t>ATA</t>
-  </si>
-  <si>
-    <t>CNTR No</t>
-  </si>
-  <si>
-    <t>HBL No</t>
+    <t>Carrier Name</t>
+  </si>
+  <si>
+    <t>Current Vessel</t>
+  </si>
+  <si>
+    <t>POL LOC</t>
+  </si>
+  <si>
+    <t>POL ATA</t>
+  </si>
+  <si>
+    <t>T/S</t>
+  </si>
+  <si>
+    <t>Optional
+T/S</t>
+  </si>
+  <si>
+    <t>Route
+TS(1st)
+LOC</t>
+  </si>
+  <si>
+    <t>TS(1st)
+LOC ↓</t>
+  </si>
+  <si>
+    <t>TS(1st) VSL ↓</t>
+  </si>
+  <si>
+    <t>POD
+LOC</t>
+  </si>
+  <si>
+    <t>POD
+Initial ETA</t>
+  </si>
+  <si>
+    <t>POD ETA</t>
+  </si>
+  <si>
+    <t>POD ATA</t>
+  </si>
+  <si>
+    <t>CNTR pick up Date
+(From port)</t>
+  </si>
+  <si>
+    <t>WH Arrival date</t>
+  </si>
+  <si>
+    <t>Emptry Return Date
+(to port)</t>
+  </si>
+  <si>
+    <t>POD ATA 
+- CNTR Pick up</t>
+  </si>
+  <si>
+    <t>CNTR Pick up 
+- Emptyr return</t>
+  </si>
+  <si>
+    <t>POD ATA 
+- Empty Return</t>
+  </si>
+  <si>
+    <t>DEM/DET 
+Free Time Days</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEM /DET Date</t>
+  </si>
+  <si>
+    <t>Shipping line Group</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG ELECTRONICS INC.</t>
+  </si>
+  <si>
+    <t>CFR</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>40FT</t>
+  </si>
+  <si>
+    <t>REFRIGERATOR</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>CNSHA</t>
+  </si>
+  <si>
+    <t>MAERSK</t>
+  </si>
+  <si>
+    <t>VNHPH</t>
+  </si>
+  <si>
+    <t>2025-03-29</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-03-27</t>
+  </si>
+  <si>
+    <t>CAAU5500184</t>
+  </si>
+  <si>
+    <t>FANU1769212</t>
+  </si>
+  <si>
+    <t>FCIU7448492</t>
+  </si>
+  <si>
+    <t>HAMU1387959</t>
+  </si>
+  <si>
+    <t>HLBU1563699</t>
+  </si>
+  <si>
+    <t>HLBU1970170</t>
+  </si>
+  <si>
+    <t>UACU5850386</t>
+  </si>
+  <si>
+    <t>DAYU6717147</t>
+  </si>
+  <si>
+    <t>HLBU9123588</t>
+  </si>
+  <si>
+    <t>HLBU9316756</t>
+  </si>
+  <si>
+    <t>HLBU9324983</t>
+  </si>
+  <si>
+    <t>HLBU9714940</t>
+  </si>
+  <si>
+    <t>HLBU9795480</t>
+  </si>
+  <si>
+    <t>HLBU9891230</t>
+  </si>
+  <si>
+    <t>TRIU8100040</t>
+  </si>
+  <si>
+    <t>HLBU3432553</t>
+  </si>
+  <si>
+    <t>UASU1037301</t>
+  </si>
+  <si>
+    <t>UACU5562116</t>
+  </si>
+  <si>
+    <t>SEGU5455336</t>
+  </si>
+  <si>
+    <t>FANU1887107</t>
+  </si>
+  <si>
+    <t>FANU3236892</t>
+  </si>
+  <si>
+    <t>HLBU1886900</t>
+  </si>
+  <si>
+    <t>HLBU2013819</t>
+  </si>
+  <si>
+    <t>FANU1518367</t>
+  </si>
+  <si>
+    <t>HAMU2851832</t>
+  </si>
+  <si>
+    <t>CAIU9265609</t>
+  </si>
+  <si>
+    <t>DFSU7316123</t>
+  </si>
+  <si>
+    <t>FANU1799238</t>
+  </si>
+  <si>
+    <t>FFAU1784933</t>
+  </si>
+  <si>
+    <t>FSCU7237143</t>
+  </si>
+  <si>
+    <t>TCNU3248531</t>
+  </si>
+  <si>
+    <t>UACU5787771</t>
+  </si>
+  <si>
+    <t>UACU5804415</t>
+  </si>
+  <si>
+    <t>CAAU5246892</t>
+  </si>
+  <si>
+    <t>CAAU5548254</t>
+  </si>
+  <si>
+    <t>FANU1460136</t>
+  </si>
+  <si>
+    <t>FANU3712751</t>
+  </si>
+  <si>
+    <t>FANU3861420</t>
+  </si>
+  <si>
+    <t>HLBU3369255</t>
+  </si>
+  <si>
+    <t>UETU5527017</t>
+  </si>
+  <si>
+    <t>FDCU0336166</t>
+  </si>
+  <si>
+    <t>FFAU2652607</t>
+  </si>
+  <si>
+    <t>GCXU5928875</t>
+  </si>
+  <si>
+    <t>HLBU1849851</t>
+  </si>
+  <si>
+    <t>HLBU1942007</t>
+  </si>
+  <si>
+    <t>HLBU2763963</t>
+  </si>
+  <si>
+    <t>HLBU2854560</t>
+  </si>
+  <si>
+    <t>HLBU3432168</t>
+  </si>
+  <si>
+    <t>HLXU8398021</t>
+  </si>
+  <si>
+    <t>UETU6478581</t>
+  </si>
+  <si>
+    <t>FANU1186489</t>
+  </si>
+  <si>
+    <t>HAMU1724983</t>
+  </si>
+  <si>
+    <t>HLBU1319487</t>
+  </si>
+  <si>
+    <t>TCLU8229352</t>
+  </si>
+  <si>
+    <t>BEAU4590345</t>
+  </si>
+  <si>
+    <t>FANU1134042</t>
+  </si>
+  <si>
+    <t>FFAU2203340</t>
+  </si>
+  <si>
+    <t>HLXU8207634</t>
+  </si>
+  <si>
+    <t>HLXU8485553</t>
+  </si>
+  <si>
+    <t>SLSU8040633</t>
+  </si>
+  <si>
+    <t>UASU1020947</t>
+  </si>
+  <si>
+    <t>CAAU8493767</t>
+  </si>
+  <si>
+    <t>FANU3564485</t>
+  </si>
+  <si>
+    <t>HAMU1291190</t>
+  </si>
+  <si>
+    <t>HAMU2171563</t>
+  </si>
+  <si>
+    <t>HAMU2304413</t>
+  </si>
+  <si>
+    <t>TEMU7814175</t>
+  </si>
+  <si>
+    <t>HAMU2702989</t>
+  </si>
+  <si>
+    <t>HLBU1595464</t>
+  </si>
+  <si>
+    <t>HLBU2656841</t>
+  </si>
+  <si>
+    <t>TCNU4479052</t>
+  </si>
+  <si>
+    <t>FANU3654043</t>
+  </si>
+  <si>
+    <t>FDCU0170563</t>
+  </si>
+  <si>
+    <t>HAMU2066439</t>
+  </si>
+  <si>
+    <t>HAMU3237963</t>
+  </si>
+  <si>
+    <t>HAMU1929155</t>
+  </si>
+  <si>
+    <t>HAMU2478816</t>
+  </si>
+  <si>
+    <t>SEKU6310938</t>
+  </si>
+  <si>
+    <t>HAMU3206957</t>
+  </si>
+  <si>
+    <t>CAIU9348283</t>
+  </si>
+  <si>
+    <t>NYKU4864010</t>
+  </si>
+  <si>
+    <t>ONEU0643111</t>
+  </si>
+  <si>
+    <t>ONEU1140261</t>
+  </si>
+  <si>
+    <t>ONEU1577396</t>
+  </si>
+  <si>
+    <t>TRHU7309140</t>
+  </si>
+  <si>
+    <t>DRYU6044400</t>
+  </si>
+  <si>
+    <t>TCNU6617546</t>
+  </si>
+  <si>
+    <t>HAMU2682917</t>
+  </si>
+  <si>
+    <t>HLBU1863438</t>
+  </si>
+  <si>
+    <t>HLXU8564797</t>
+  </si>
+  <si>
+    <t>TCLU8024901</t>
+  </si>
+  <si>
+    <t>ONEU1705028</t>
+  </si>
+  <si>
+    <t>TCLU1533527</t>
+  </si>
+  <si>
+    <t>MSK</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>↓LGE Peru Input</t>
+  </si>
+  <si>
+    <t>Origin Country</t>
+  </si>
+  <si>
+    <t>24 1H LT</t>
+  </si>
+  <si>
+    <t>Actual LT</t>
+  </si>
+  <si>
+    <t>Gap</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>On Time</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>MAERSK LABERINTO</t>
+  </si>
+  <si>
+    <t>APM TERMINALS IN CALLAO PORT</t>
+  </si>
+  <si>
+    <t>MAERSK VIETNAM CO., LTD</t>
+  </si>
+  <si>
+    <t>PLIVN4F35736</t>
+  </si>
+  <si>
+    <t>HQCN361563431-1</t>
+  </si>
+  <si>
+    <t>MRKU5514937</t>
+  </si>
+  <si>
+    <t>MAEU246315935</t>
   </si>
   <si>
     <t>PLIVN4F35739</t>
   </si>
   <si>
+    <t>HQCN361563431-4</t>
+  </si>
+  <si>
     <t>SUDU8870454</t>
   </si>
   <si>
-    <t>MAERSK</t>
+    <t>MAEU246672942</t>
   </si>
   <si>
     <t>SUDU8878732</t>
   </si>
   <si>
-    <t>PLIVN4F35736</t>
-  </si>
-  <si>
-    <t>MRKU5514937</t>
+    <t>↓Auto Calculation</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>DEM /DET 
 Deadline</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storage
+Deadline</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storage
+Date</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estimated
+Storage Cost</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estimated
+DEM/DET Cost</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estimated
+Total Cost</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="166" formatCode="0_ "/>
+    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,28 +600,87 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color indexed="63"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="LG스마트체 Regular"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="LG스마트체 Regular"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -122,23 +688,58 @@
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="LG스마트체 Regular"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <color rgb="FF0000FF"/>
+      <name val="LG스마트체 Regular"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="LG스마트체 Regular"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="LG스마트체 Regular"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="63"/>
+      <name val="LG스마트체 Regular"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="LG스마트체 Regular"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="LG스마트체 Regular"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,19 +754,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB4C6E7"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -176,7 +783,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -186,58 +793,209 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF808080"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right style="thin">
-        <color rgb="FF808080"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </right>
       <top style="thin">
-        <color rgb="FF808080"/>
+        <color theme="0" tint="-0.499984740745262"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF808080"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="19" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Comma [0]" xfId="5" builtinId="6"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="쉼표 [0] 2" xfId="2"/>
+    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 3" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8989"/>
+      <color rgb="FFFF9999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -295,9 +1053,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -330,9 +1088,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -511,123 +1269,2645 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="13.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="13" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="26" style="13" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="14" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="14" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="14" customWidth="1"/>
+    <col min="12" max="12" width="54.7109375" style="13" customWidth="1"/>
+    <col min="13" max="13" width="25" style="13" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="13" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" style="15" customWidth="1"/>
+    <col min="16" max="16" width="8" style="13" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" style="13" customWidth="1"/>
+    <col min="18" max="19" width="10.5703125" style="13" customWidth="1"/>
+    <col min="20" max="20" width="28.42578125" style="12" customWidth="1"/>
+    <col min="21" max="21" width="23.85546875" style="13" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="15" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" style="15" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.28515625" style="43" customWidth="1"/>
+    <col min="29" max="29" width="17.28515625" style="43" customWidth="1"/>
+    <col min="30" max="30" width="17" style="43" customWidth="1"/>
+    <col min="31" max="32" width="17.140625" style="43" customWidth="1"/>
+    <col min="33" max="33" width="14.85546875" style="15" customWidth="1"/>
+    <col min="34" max="34" width="14.85546875" style="13" customWidth="1"/>
+    <col min="35" max="38" width="17.28515625" style="13" customWidth="1"/>
+    <col min="39" max="39" width="20.7109375" style="13" customWidth="1"/>
+    <col min="40" max="40" width="24.42578125" style="44" customWidth="1"/>
+    <col min="41" max="41" width="24.42578125" style="45" customWidth="1"/>
+    <col min="42" max="44" width="24.42578125" style="44" customWidth="1"/>
+    <col min="45" max="45" width="29.42578125" style="15" customWidth="1"/>
+    <col min="46" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:45" ht="33.75">
+      <c r="W1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL1" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS1" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" ht="33.75">
+      <c r="A2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA2" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC2" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE2" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG2" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH2" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI2" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ2" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="AK2" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL2" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN2" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO2" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP2" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ2" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR2" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS2" s="27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" ht="15" customHeight="1">
+      <c r="A3" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="34">
+        <v>92</v>
+      </c>
+      <c r="H3" s="34">
+        <v>61.9</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="N3" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="36">
+        <v>45602</v>
+      </c>
+      <c r="P3" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="U3" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="V3" s="36">
+        <v>45655</v>
+      </c>
+      <c r="W3" s="36">
+        <v>45658</v>
+      </c>
+      <c r="X3" s="37">
+        <v>45658</v>
+      </c>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD3" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE3" s="39">
+        <v>21</v>
+      </c>
+      <c r="AF3" s="40">
+        <v>45660</v>
+      </c>
+      <c r="AG3" s="40">
+        <v>45678</v>
+      </c>
+      <c r="AH3" s="22">
+        <v>159</v>
+      </c>
+      <c r="AI3" s="22">
+        <v>141</v>
+      </c>
+      <c r="AJ3" s="46">
+        <v>28620</v>
+      </c>
+      <c r="AK3" s="46">
+        <v>25380</v>
+      </c>
+      <c r="AL3" s="46">
+        <v>54000</v>
+      </c>
+      <c r="AM3" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN3" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO3" s="39">
+        <v>51.292362068494349</v>
+      </c>
+      <c r="AP3" s="41">
+        <v>56</v>
+      </c>
+      <c r="AQ3" s="41">
+        <v>5</v>
+      </c>
+      <c r="AR3" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS3" s="42"/>
+    </row>
+    <row r="4" spans="1:45" ht="15" customHeight="1">
+      <c r="A4" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="34">
+        <v>92</v>
+      </c>
+      <c r="H4" s="34">
+        <v>61.9</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="N4" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="36">
+        <v>45602</v>
+      </c>
+      <c r="P4" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="U4" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="V4" s="36">
+        <v>45655</v>
+      </c>
+      <c r="W4" s="36">
+        <v>45658</v>
+      </c>
+      <c r="X4" s="37">
+        <v>45658</v>
+      </c>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD4" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE4" s="39">
+        <v>21</v>
+      </c>
+      <c r="AF4" s="40">
+        <v>45660</v>
+      </c>
+      <c r="AG4" s="40">
+        <v>45678</v>
+      </c>
+      <c r="AH4" s="22">
+        <v>159</v>
+      </c>
+      <c r="AI4" s="22">
+        <v>141</v>
+      </c>
+      <c r="AJ4" s="46">
+        <v>28620</v>
+      </c>
+      <c r="AK4" s="46">
+        <v>25380</v>
+      </c>
+      <c r="AL4" s="46">
+        <v>54000</v>
+      </c>
+      <c r="AM4" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN4" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO4" s="39">
+        <v>51.292362068494349</v>
+      </c>
+      <c r="AP4" s="41">
+        <v>56</v>
+      </c>
+      <c r="AQ4" s="41">
+        <v>5</v>
+      </c>
+      <c r="AR4" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS4" s="42"/>
+    </row>
+    <row r="5" spans="1:45" ht="15" customHeight="1">
+      <c r="A5" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="34">
+        <v>97</v>
+      </c>
+      <c r="H5" s="34">
+        <v>61.3</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="N5" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="36">
+        <v>45603</v>
+      </c>
+      <c r="P5" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="U5" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="V5" s="36">
+        <v>45655</v>
+      </c>
+      <c r="W5" s="36">
+        <v>45658</v>
+      </c>
+      <c r="X5" s="37">
+        <v>45658</v>
+      </c>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC5" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD5" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE5" s="39">
+        <v>21</v>
+      </c>
+      <c r="AF5" s="40">
+        <v>45660</v>
+      </c>
+      <c r="AG5" s="40">
+        <v>45678</v>
+      </c>
+      <c r="AH5" s="22">
+        <v>159</v>
+      </c>
+      <c r="AI5" s="22">
+        <v>141</v>
+      </c>
+      <c r="AJ5" s="46">
+        <v>28620</v>
+      </c>
+      <c r="AK5" s="46">
+        <v>25380</v>
+      </c>
+      <c r="AL5" s="46">
+        <v>54000</v>
+      </c>
+      <c r="AM5" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="AN5" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO5" s="39">
+        <v>51.292362068494349</v>
+      </c>
+      <c r="AP5" s="41">
+        <v>55</v>
+      </c>
+      <c r="AQ5" s="41">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7">
-        <v>45658</v>
-      </c>
-      <c r="E2" s="8">
-        <v>45658</v>
-      </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="9">
-        <v>45678</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7">
-        <v>45658</v>
-      </c>
-      <c r="E3" s="8">
-        <v>45658</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="9">
-        <v>45678</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7">
-        <v>45658</v>
-      </c>
-      <c r="E4" s="8">
-        <v>45658</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="9">
-        <v>45678</v>
-      </c>
+      <c r="AR5" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS5" s="42"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="P2" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:I95"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:9" ht="52.5">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9">
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="9">
+        <v>45745</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9">
+        <v>45745</v>
+      </c>
+      <c r="I3" s="10">
+        <v>45767</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9">
+      <c r="C4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="9">
+        <v>45754</v>
+      </c>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9">
+        <v>45754</v>
+      </c>
+      <c r="I4" s="10">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9">
+      <c r="C5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="9">
+        <v>45754</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9">
+        <v>45754</v>
+      </c>
+      <c r="I5" s="10">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9">
+      <c r="C6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="9">
+        <v>45754</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9">
+        <v>45754</v>
+      </c>
+      <c r="I6" s="10">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="9">
+        <v>45754</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9">
+        <v>45754</v>
+      </c>
+      <c r="I7" s="10">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="9">
+        <v>45754</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9">
+        <v>45754</v>
+      </c>
+      <c r="I8" s="10">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="9">
+        <v>45754</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9">
+        <v>45754</v>
+      </c>
+      <c r="I9" s="10">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="9">
+        <v>45754</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
+        <v>45754</v>
+      </c>
+      <c r="I10" s="10">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="9">
+        <v>45754</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9">
+        <v>45754</v>
+      </c>
+      <c r="I11" s="10">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="9">
+        <v>45754</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <v>45754</v>
+      </c>
+      <c r="I12" s="10">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="9">
+        <v>45754</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
+        <v>45754</v>
+      </c>
+      <c r="I13" s="10">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="9">
+        <v>45754</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
+        <v>45754</v>
+      </c>
+      <c r="I14" s="10">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="9">
+        <v>45754</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
+        <v>45754</v>
+      </c>
+      <c r="I15" s="10">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="9">
+        <v>45754</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9">
+        <v>45754</v>
+      </c>
+      <c r="I16" s="10">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="9">
+        <v>45754</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9">
+        <v>45754</v>
+      </c>
+      <c r="I17" s="10">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="9">
+        <v>45754</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9">
+        <v>45754</v>
+      </c>
+      <c r="I18" s="10">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="9">
+        <v>45754</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9">
+        <v>45754</v>
+      </c>
+      <c r="I19" s="10">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="9">
+        <v>45754</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9">
+        <v>45754</v>
+      </c>
+      <c r="I20" s="10">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="9">
+        <v>45754</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9">
+        <v>45754</v>
+      </c>
+      <c r="I21" s="10">
+        <v>45769</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="9">
+        <v>45741</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9">
+        <v>45741</v>
+      </c>
+      <c r="I22" s="10">
+        <v>45763</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="9">
+        <v>45741</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9">
+        <v>45741</v>
+      </c>
+      <c r="I23" s="10">
+        <v>45763</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="9">
+        <v>45741</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9">
+        <v>45741</v>
+      </c>
+      <c r="I24" s="10">
+        <v>45763</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="9">
+        <v>45741</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9">
+        <v>45741</v>
+      </c>
+      <c r="I25" s="10">
+        <v>45763</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="C26" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="9">
+        <v>45741</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9">
+        <v>45741</v>
+      </c>
+      <c r="I26" s="10">
+        <v>45763</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="C27" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="9">
+        <v>45741</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9">
+        <v>45741</v>
+      </c>
+      <c r="I27" s="10">
+        <v>45763</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9">
+      <c r="C28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="9">
+        <v>45752</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9">
+        <v>45752</v>
+      </c>
+      <c r="I28" s="10">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9">
+      <c r="C29" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="9">
+        <v>45752</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9">
+        <v>45752</v>
+      </c>
+      <c r="I29" s="10">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9">
+      <c r="C30" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="9">
+        <v>45752</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9">
+        <v>45752</v>
+      </c>
+      <c r="I30" s="10">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9">
+      <c r="C31" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="9">
+        <v>45751</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9">
+        <v>45751</v>
+      </c>
+      <c r="I31" s="10">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9">
+      <c r="C32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="4">
+        <v>45752</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4">
+        <v>45752</v>
+      </c>
+      <c r="I32" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="C33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="4">
+        <v>45752</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4">
+        <v>45752</v>
+      </c>
+      <c r="I33" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9">
+      <c r="C34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="4">
+        <v>45752</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4">
+        <v>45752</v>
+      </c>
+      <c r="I34" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9">
+      <c r="C35" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="4">
+        <v>45752</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4">
+        <v>45752</v>
+      </c>
+      <c r="I35" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9">
+      <c r="C36" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="4">
+        <v>45751</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4">
+        <v>45751</v>
+      </c>
+      <c r="I36" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9">
+      <c r="C37" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="4">
+        <v>45751</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4">
+        <v>45751</v>
+      </c>
+      <c r="I37" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9">
+      <c r="C38" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="4">
+        <v>45751</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4">
+        <v>45751</v>
+      </c>
+      <c r="I38" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9">
+      <c r="C39" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="4">
+        <v>45751</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4">
+        <v>45751</v>
+      </c>
+      <c r="I39" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9">
+      <c r="C40" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="4">
+        <v>45751</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4">
+        <v>45751</v>
+      </c>
+      <c r="I40" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9">
+      <c r="C41" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" s="4">
+        <v>45751</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4">
+        <v>45751</v>
+      </c>
+      <c r="I41" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9">
+      <c r="C42" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="9">
+        <v>45751</v>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9">
+        <v>45751</v>
+      </c>
+      <c r="I42" s="10">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9">
+      <c r="C43" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="9">
+        <v>45751</v>
+      </c>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9">
+        <v>45751</v>
+      </c>
+      <c r="I43" s="10">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9">
+      <c r="C44" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="9">
+        <v>45751</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9">
+        <v>45751</v>
+      </c>
+      <c r="I44" s="10">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9">
+      <c r="C45" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="9">
+        <v>45751</v>
+      </c>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9">
+        <v>45751</v>
+      </c>
+      <c r="I45" s="10">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9">
+      <c r="C46" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" s="9">
+        <v>45751</v>
+      </c>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9">
+        <v>45751</v>
+      </c>
+      <c r="I46" s="10">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9">
+      <c r="C47" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F47" s="9">
+        <v>45751</v>
+      </c>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9">
+        <v>45751</v>
+      </c>
+      <c r="I47" s="10">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9">
+      <c r="C48" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F48" s="9">
+        <v>45751</v>
+      </c>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9">
+        <v>45751</v>
+      </c>
+      <c r="I48" s="10">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9">
+      <c r="C49" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F49" s="9">
+        <v>45751</v>
+      </c>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9">
+        <v>45751</v>
+      </c>
+      <c r="I49" s="10">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9">
+      <c r="C50" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F50" s="9">
+        <v>45751</v>
+      </c>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9">
+        <v>45751</v>
+      </c>
+      <c r="I50" s="10">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9">
+      <c r="C51" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="9">
+        <v>45751</v>
+      </c>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9">
+        <v>45751</v>
+      </c>
+      <c r="I51" s="10">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9">
+      <c r="C52" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="9">
+        <v>45751</v>
+      </c>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9">
+        <v>45751</v>
+      </c>
+      <c r="I52" s="10">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9">
+      <c r="C53" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F53" s="9">
+        <v>45751</v>
+      </c>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9">
+        <v>45751</v>
+      </c>
+      <c r="I53" s="10">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9">
+      <c r="C54" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" s="9">
+        <v>45751</v>
+      </c>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9">
+        <v>45751</v>
+      </c>
+      <c r="I54" s="10">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9">
+      <c r="C55" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" s="9">
+        <v>45751</v>
+      </c>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9">
+        <v>45751</v>
+      </c>
+      <c r="I55" s="10">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9">
+      <c r="C56" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F56" s="9">
+        <v>45751</v>
+      </c>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9">
+        <v>45751</v>
+      </c>
+      <c r="I56" s="10">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9">
+      <c r="C57" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F57" s="9">
+        <v>45751</v>
+      </c>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9">
+        <v>45751</v>
+      </c>
+      <c r="I57" s="10">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9">
+      <c r="C58" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F58" s="9">
+        <v>45751</v>
+      </c>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9">
+        <v>45751</v>
+      </c>
+      <c r="I58" s="10">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9">
+      <c r="C59" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59" s="9">
+        <v>45751</v>
+      </c>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9">
+        <v>45751</v>
+      </c>
+      <c r="I59" s="10">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9">
+      <c r="C60" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F60" s="9">
+        <v>45751</v>
+      </c>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9">
+        <v>45751</v>
+      </c>
+      <c r="I60" s="10">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9">
+      <c r="C61" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61" s="9">
+        <v>45751</v>
+      </c>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9">
+        <v>45751</v>
+      </c>
+      <c r="I61" s="10">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9">
+      <c r="C62" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="4">
+        <v>45751</v>
+      </c>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4">
+        <v>45751</v>
+      </c>
+      <c r="I62" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9">
+      <c r="C63" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" s="4">
+        <v>45751</v>
+      </c>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4">
+        <v>45751</v>
+      </c>
+      <c r="I63" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9">
+      <c r="C64" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" s="4">
+        <v>45751</v>
+      </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4">
+        <v>45751</v>
+      </c>
+      <c r="I64" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9">
+      <c r="C65" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" s="4">
+        <v>45751</v>
+      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4">
+        <v>45751</v>
+      </c>
+      <c r="I65" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9">
+      <c r="C66" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F66" s="4">
+        <v>45751</v>
+      </c>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4">
+        <v>45751</v>
+      </c>
+      <c r="I66" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9">
+      <c r="C67" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F67" s="4">
+        <v>45751</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4">
+        <v>45751</v>
+      </c>
+      <c r="I67" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9">
+      <c r="C68" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F68" s="4">
+        <v>45751</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4">
+        <v>45751</v>
+      </c>
+      <c r="I68" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9">
+      <c r="C69" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F69" s="4">
+        <v>45751</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4">
+        <v>45751</v>
+      </c>
+      <c r="I69" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9">
+      <c r="C70" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70" s="4">
+        <v>45751</v>
+      </c>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4">
+        <v>45751</v>
+      </c>
+      <c r="I70" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9">
+      <c r="C71" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F71" s="4">
+        <v>45751</v>
+      </c>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4">
+        <v>45751</v>
+      </c>
+      <c r="I71" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9">
+      <c r="C72" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F72" s="4">
+        <v>45751</v>
+      </c>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4">
+        <v>45751</v>
+      </c>
+      <c r="I72" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9">
+      <c r="C73" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F73" s="4">
+        <v>45751</v>
+      </c>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4">
+        <v>45751</v>
+      </c>
+      <c r="I73" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9">
+      <c r="C74" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F74" s="4">
+        <v>45751</v>
+      </c>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4">
+        <v>45751</v>
+      </c>
+      <c r="I74" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9">
+      <c r="C75" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F75" s="4">
+        <v>45751</v>
+      </c>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4">
+        <v>45751</v>
+      </c>
+      <c r="I75" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9">
+      <c r="C76" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F76" s="4">
+        <v>45751</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4">
+        <v>45751</v>
+      </c>
+      <c r="I76" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9">
+      <c r="C77" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" s="4">
+        <v>45751</v>
+      </c>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4">
+        <v>45751</v>
+      </c>
+      <c r="I77" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9">
+      <c r="C78" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F78" s="4">
+        <v>45751</v>
+      </c>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4">
+        <v>45751</v>
+      </c>
+      <c r="I78" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9">
+      <c r="C79" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F79" s="4">
+        <v>45751</v>
+      </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4">
+        <v>45751</v>
+      </c>
+      <c r="I79" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9">
+      <c r="C80" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F80" s="4">
+        <v>45751</v>
+      </c>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4">
+        <v>45751</v>
+      </c>
+      <c r="I80" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9">
+      <c r="C81" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F81" s="4">
+        <v>45751</v>
+      </c>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4">
+        <v>45751</v>
+      </c>
+      <c r="I81" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9">
+      <c r="C82" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F82" s="4">
+        <v>45752</v>
+      </c>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4">
+        <v>45752</v>
+      </c>
+      <c r="I82" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9">
+      <c r="C83" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F83" s="4">
+        <v>45752</v>
+      </c>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4">
+        <v>45752</v>
+      </c>
+      <c r="I83" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9">
+      <c r="C84" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F84" s="4">
+        <v>45752</v>
+      </c>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4">
+        <v>45752</v>
+      </c>
+      <c r="I84" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9">
+      <c r="C85" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F85" s="4">
+        <v>45752</v>
+      </c>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4">
+        <v>45752</v>
+      </c>
+      <c r="I85" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="86" spans="3:9">
+      <c r="C86" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F86" s="4">
+        <v>45752</v>
+      </c>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4">
+        <v>45752</v>
+      </c>
+      <c r="I86" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9">
+      <c r="C87" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F87" s="4">
+        <v>45752</v>
+      </c>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4">
+        <v>45752</v>
+      </c>
+      <c r="I87" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="88" spans="3:9">
+      <c r="C88" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F88" s="4">
+        <v>45752</v>
+      </c>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4">
+        <v>45752</v>
+      </c>
+      <c r="I88" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9">
+      <c r="C89" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F89" s="4">
+        <v>45752</v>
+      </c>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4">
+        <v>45752</v>
+      </c>
+      <c r="I89" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="90" spans="3:9">
+      <c r="C90" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F90" s="4">
+        <v>45752</v>
+      </c>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4">
+        <v>45752</v>
+      </c>
+      <c r="I90" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9">
+      <c r="C91" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F91" s="4">
+        <v>45752</v>
+      </c>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4">
+        <v>45752</v>
+      </c>
+      <c r="I91" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9">
+      <c r="C92" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F92" s="4">
+        <v>45752</v>
+      </c>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4">
+        <v>45752</v>
+      </c>
+      <c r="I92" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="93" spans="3:9">
+      <c r="C93" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F93" s="4">
+        <v>45752</v>
+      </c>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4">
+        <v>45752</v>
+      </c>
+      <c r="I93" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="94" spans="3:9">
+      <c r="C94" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F94" s="4">
+        <v>45752</v>
+      </c>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4">
+        <v>45752</v>
+      </c>
+      <c r="I94" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+    <row r="95" spans="3:9">
+      <c r="C95" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F95" s="4">
+        <v>45752</v>
+      </c>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4">
+        <v>45752</v>
+      </c>
+      <c r="I95" s="5">
+        <v>45770</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>